--- a/Website_Padding.xlsx
+++ b/Website_Padding.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Page Name</t>
   </si>
@@ -28,16 +28,34 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Performance</t>
+    <t>Mobile Performance</t>
+  </si>
+  <si>
+    <t>Mobile Accessibility</t>
+  </si>
+  <si>
+    <t>Mobile Best Practices</t>
+  </si>
+  <si>
+    <t>Mobile SEO</t>
+  </si>
+  <si>
+    <t>Desktop Performance</t>
+  </si>
+  <si>
+    <t>Desktop Accessibility</t>
+  </si>
+  <si>
+    <t>Desktop Best Practices</t>
+  </si>
+  <si>
+    <t>Desktop SEO</t>
   </si>
   <si>
     <t xml:space="preserve">Home Page </t>
   </si>
   <si>
     <t>https://stagingiidm.wpengine.com/</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve">Contact us </t>
@@ -349,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -360,14 +378,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -677,17 +692,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="44.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="74.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="38.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="44.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="38.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
@@ -706,485 +728,801 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30">
       <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="30">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="30">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
+      <c r="A21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
+      <c r="A28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
-      <c r="A33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
-      <c r="A34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
-      <c r="A35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
-      <c r="A36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
-      <c r="A37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
-      <c r="A38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
-      <c r="A40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
-      <c r="A41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
-      <c r="A42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
-      <c r="A43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="6"/>
+      <c r="A43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5">
-      <c r="A44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="6"/>
+      <c r="A44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Website_Padding.xlsx
+++ b/Website_Padding.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <t>Page Name</t>
   </si>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>https://stagingiidm.wpengine.com/</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       28   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       87   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       57   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       54   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       61   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       91   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       59   </t>
   </si>
   <si>
     <t xml:space="preserve">Contact us </t>
@@ -310,34 +334,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <family val="2"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
     </font>
     <font>
+      <color rgb="FF0000ff"/>
+      <family val="2"/>
       <sz val="10"/>
-      <color rgb="FF0000ff"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -348,14 +371,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -367,38 +383,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -694,835 +705,851 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="44.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="38.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="27.14785714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.14785714285715" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.862142857142858" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.719285714285713" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.719285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.862142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.005" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.862142857142857" style="2" customWidth="1"/>
+    <col min="9" max="11" width="11.862142857142858" style="2" customWidth="1"/>
+    <col min="12" max="12" width="38.29071428571429" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="22.5" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30">
-      <c r="A7" s="2" t="s">
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="30">
-      <c r="A8" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="30">
-      <c r="A9" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="2" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="2" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="5" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="3" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="2" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="2" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="5" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="3" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="5" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="5" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="5" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="5" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="5" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="5" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="5" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="5" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="5" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="5" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="5" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="5" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="5" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
-      <c r="A33" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
-      <c r="A34" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
-      <c r="A35" s="5" t="s">
+      <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
-      <c r="A36" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
-      <c r="A37" s="5" t="s">
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
-      <c r="A38" s="5" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="5" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
-      <c r="A40" s="5" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
-      <c r="A41" s="5" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
-      <c r="A42" s="5" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
-      <c r="A43" s="5" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5">
-      <c r="A44" s="5" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
